--- a/DoE/DoE - TCC v2.xlsx
+++ b/DoE/DoE - TCC v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralesupelec-my.sharepoint.com/personal/yuichi_tokumoto_student-cs_fr/Documents/USP/TCC/Code/tcc_model/SELSP_simOpt/DoE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9644D672-0A19-DC4A-9D81-DF1E0D4E4FDF}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="14_{BE6FF1C8-8357-0342-8024-DD82E45DB8E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F6E2B6D-87B3-3640-AD3A-03F000E85210}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
+    <workbookView xWindow="3440" yWindow="0" windowWidth="25360" windowHeight="18000" activeTab="1" xr2:uid="{CC62E9E0-8C68-8E4C-8F69-EEE9016F081D}"/>
   </bookViews>
   <sheets>
     <sheet name="Variáveis" sheetId="3" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
@@ -397,7 +397,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -478,10 +477,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -783,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE2DF1F-9A8B-8C42-A2EC-140CB765AF13}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -797,19 +792,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12">
-      <c r="E2" s="31"/>
+      <c r="E2" s="30"/>
       <c r="F2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="2:12">
-      <c r="E3" s="24"/>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:12">
-      <c r="E4" s="23"/>
+      <c r="E4" s="22"/>
       <c r="F4" t="s">
         <v>53</v>
       </c>
@@ -829,67 +824,67 @@
       <c r="C7" s="1"/>
       <c r="J7" s="12"/>
     </row>
-    <row r="8" spans="2:12" s="22" customFormat="1" ht="45" customHeight="1">
+    <row r="8" spans="2:12" s="21" customFormat="1" ht="45" customHeight="1">
       <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="25" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:12" s="41" customFormat="1" ht="15" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39" t="s">
+    <row r="9" spans="2:12" s="40" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="K9" s="40" t="s">
+      <c r="K9" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="40" t="s">
+      <c r="L9" s="39" t="s">
         <v>58</v>
       </c>
     </row>
@@ -897,40 +892,40 @@
       <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="34">
-        <v>5</v>
-      </c>
-      <c r="D10" s="35">
-        <v>0.7</v>
-      </c>
-      <c r="E10" s="30">
+      <c r="C10" s="33">
+        <v>5</v>
+      </c>
+      <c r="D10" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E10*$D10</f>
         <v>0.16799999999999998</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H10" s="25">
-        <f>G10*E10</f>
+      <c r="H10" s="24">
+        <f t="shared" ref="H10:H18" si="0">G10*E10</f>
         <v>1000000</v>
       </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
+      <c r="I10" s="28">
+        <v>1</v>
+      </c>
+      <c r="J10" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -939,40 +934,40 @@
       <c r="B11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="34">
-        <v>10</v>
-      </c>
-      <c r="D11" s="35">
-        <v>0.7</v>
-      </c>
-      <c r="E11" s="30">
+      <c r="C11" s="33">
+        <v>10</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="E11" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E11*$D11</f>
         <v>0.16799999999999998</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H11" s="25">
-        <f>G11*E11</f>
+      <c r="H11" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I11" s="29">
-        <v>1</v>
-      </c>
-      <c r="J11" s="29">
+      <c r="I11" s="28">
+        <v>1</v>
+      </c>
+      <c r="J11" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -981,40 +976,40 @@
       <c r="B12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="34">
-        <v>20</v>
-      </c>
-      <c r="D12" s="35">
-        <v>0.7</v>
-      </c>
-      <c r="E12" s="30">
+      <c r="C12" s="33">
+        <v>20</v>
+      </c>
+      <c r="D12" s="34">
+        <v>0.7</v>
+      </c>
+      <c r="E12" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E12*$D12</f>
         <v>0.16799999999999998</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H12" s="25">
-        <f>G12*E12</f>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I12" s="29">
-        <v>1</v>
-      </c>
-      <c r="J12" s="29">
+      <c r="I12" s="28">
+        <v>1</v>
+      </c>
+      <c r="J12" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1023,40 +1018,40 @@
       <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="34">
-        <v>5</v>
-      </c>
-      <c r="D13" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="C13" s="33">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E13*$D13</f>
         <v>0.216</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H13" s="25">
-        <f>G13*E13</f>
+      <c r="H13" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I13" s="29">
-        <v>1</v>
-      </c>
-      <c r="J13" s="29">
+      <c r="I13" s="28">
+        <v>1</v>
+      </c>
+      <c r="J13" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1065,40 +1060,40 @@
       <c r="B14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="34">
-        <v>10</v>
-      </c>
-      <c r="D14" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="E14" s="30">
+      <c r="C14" s="33">
+        <v>10</v>
+      </c>
+      <c r="D14" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="E14" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E14*$D14</f>
         <v>0.216</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H14" s="25">
-        <f>G14*E14</f>
+      <c r="H14" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I14" s="29">
-        <v>1</v>
-      </c>
-      <c r="J14" s="29">
+      <c r="I14" s="28">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1107,40 +1102,40 @@
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="34">
-        <v>20</v>
-      </c>
-      <c r="D15" s="35">
-        <v>0.9</v>
-      </c>
-      <c r="E15" s="30">
+      <c r="C15" s="33">
+        <v>20</v>
+      </c>
+      <c r="D15" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="E15" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E15*$D15</f>
         <v>0.216</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H15" s="25">
-        <f>G15*E15</f>
+      <c r="H15" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I15" s="29">
-        <v>1</v>
-      </c>
-      <c r="J15" s="29">
+      <c r="I15" s="28">
+        <v>1</v>
+      </c>
+      <c r="J15" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1149,40 +1144,40 @@
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="34">
-        <v>5</v>
-      </c>
-      <c r="D16" s="35">
-        <v>1</v>
-      </c>
-      <c r="E16" s="30">
+      <c r="C16" s="33">
+        <v>5</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1</v>
+      </c>
+      <c r="E16" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E16*$D16</f>
         <v>0.24</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H16" s="25">
-        <f>G16*E16</f>
+      <c r="H16" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I16" s="29">
-        <v>1</v>
-      </c>
-      <c r="J16" s="29">
+      <c r="I16" s="28">
+        <v>1</v>
+      </c>
+      <c r="J16" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1191,40 +1186,40 @@
       <c r="B17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="34">
-        <v>10</v>
-      </c>
-      <c r="D17" s="35">
-        <v>1</v>
-      </c>
-      <c r="E17" s="30">
+      <c r="C17" s="33">
+        <v>10</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+      <c r="E17" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E17*$D17</f>
         <v>0.24</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H17" s="25">
-        <f>G17*E17</f>
+      <c r="H17" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I17" s="29">
-        <v>1</v>
-      </c>
-      <c r="J17" s="29">
+      <c r="I17" s="28">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1233,40 +1228,40 @@
       <c r="B18" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="34">
-        <v>20</v>
-      </c>
-      <c r="D18" s="35">
-        <v>1</v>
-      </c>
-      <c r="E18" s="30">
+      <c r="C18" s="33">
+        <v>20</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="E18" s="29">
         <f>Premissas!$E$6/Variáveis!$G$10</f>
         <v>25000</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <f>Premissas!$E$5*24/Variáveis!$E18*$D18</f>
         <v>0.24</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <f>Premissas!$E$8</f>
         <v>40</v>
       </c>
-      <c r="H18" s="25">
-        <f>G18*E18</f>
+      <c r="H18" s="24">
+        <f t="shared" si="0"/>
         <v>1000000</v>
       </c>
-      <c r="I18" s="29">
-        <v>1</v>
-      </c>
-      <c r="J18" s="29">
+      <c r="I18" s="28">
+        <v>1</v>
+      </c>
+      <c r="J18" s="28">
         <f>Premissas!$E$12</f>
         <v>250</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="28">
         <f>Premissas!$E$13</f>
         <v>0.1</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="28">
         <f>Premissas!$E$14</f>
         <v>40</v>
       </c>
@@ -1281,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF39DBB-A739-5D48-810A-D71B7B4DA503}">
   <dimension ref="D3:P25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1472,7 +1467,7 @@
       </c>
     </row>
     <row r="13" spans="4:16">
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="18">
@@ -1483,7 +1478,7 @@
       <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>40</v>
       </c>
     </row>
@@ -1548,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56037AD5-F184-5C4A-9E5F-27DB4DC80428}">
   <dimension ref="A1:G973"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" topLeftCell="A933" workbookViewId="0">
+      <selection activeCell="B973" sqref="B973"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
